--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="624" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="624" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,11 @@
     <sheet name="InitialVote" sheetId="5" r:id="rId5"/>
     <sheet name="JoinVote" sheetId="6" r:id="rId6"/>
     <sheet name="SearchVote" sheetId="7" r:id="rId7"/>
-    <sheet name="IndexVoteHistory" sheetId="9" r:id="rId8"/>
+    <sheet name="IndexVoteHistoryList" sheetId="9" r:id="rId8"/>
     <sheet name="ViewProcessingVote" sheetId="8" r:id="rId9"/>
     <sheet name="SetPassword" sheetId="10" r:id="rId10"/>
-    <sheet name="CancelVote" sheetId="11" r:id="rId11"/>
-    <sheet name="ViewDuplicateVote" sheetId="12" r:id="rId12"/>
+    <sheet name="CancelUserSelection" sheetId="11" r:id="rId11"/>
+    <sheet name="ViewDuplicateSelection" sheetId="12" r:id="rId12"/>
     <sheet name="CodeCheck" sheetId="13" r:id="rId13"/>
     <sheet name="ViewHistoryVote" sheetId="14" r:id="rId14"/>
     <sheet name="ViewVoteParticipator" sheetId="15" r:id="rId15"/>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1673,7 +1673,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2091,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2206,7 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3182,7 +3182,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="624" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="624" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="CodeCheck" sheetId="13" r:id="rId13"/>
     <sheet name="ViewHistoryVote" sheetId="14" r:id="rId14"/>
     <sheet name="ViewVoteParticipator" sheetId="15" r:id="rId15"/>
+    <sheet name="uploadToken" sheetId="16" r:id="rId16"/>
+    <sheet name="resendCode" sheetId="17" r:id="rId17"/>
+    <sheet name="automaticGeneratePassword" sheetId="18" r:id="rId18"/>
+    <sheet name="forgetPassword" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="148">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,517 +51,577 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>firstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push notification token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Non-Null when result is false</t>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">All interface should use JSON as data format to send the Value. All respnse will contain the Common Response, if the key named success is false, this response will only contain the Common Response. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{msg:"Inviald email",success:false}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array of content, content's type is string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvaliduser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiator:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:location 1:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All time format is yy:mm:dd:hh:mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvaliduser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the user has already vote, they don't have to input the password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selection's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historylist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentvalidvote:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvaliduser:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime:datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime:datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote's subkey, if user has already joined this vote, don't return that vote record.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votefnished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicatelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checktype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signup 1:signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollnumber:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finaloptionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participatorlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participator's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emaillist:array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiatorid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lastName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>firstName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-Null</t>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push notification token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>Non-Null when result is false</t>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">All interface should use JSON as data format to send the Value. All respnse will contain the Common Response, if the key named success is false, this response will only contain the Common Response. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{msg:"Inviald email",success:false}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longtitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array of content, content's type is string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxvaliduser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longtitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>votelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiator:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:location 1:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All time format is yy:mm:dd:hh:mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxvaliduser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If the user has already vote, they don't have to input the password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selection's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historylist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>history's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentvalidvote:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxvaliduser:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime:datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endtime:datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vote's subkey, if user has already joined this vote, don't return that vote record.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>votefnished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicatelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checktype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signup 1:signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pollnumber:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finaloptionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participatorlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participator's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emaillist:array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +851,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -855,8 +919,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -880,6 +966,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -931,7 +1035,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="89">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -966,6 +1070,17 @@
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -999,6 +1114,17 @@
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1339,100 +1465,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
+      <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="E5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
-      <c r="A8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1458,7 +1584,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1471,12 +1597,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1486,44 +1612,44 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1533,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1686,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1573,12 +1699,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1588,44 +1714,44 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1635,21 +1761,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -1687,12 +1813,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1702,32 +1828,32 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -1737,40 +1863,40 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1812,12 +1938,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1827,58 +1953,58 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1888,10 +2014,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1912,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C14"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1929,152 +2055,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1">
+      <c r="A4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
+    <row r="6" spans="1:4" ht="16" thickBot="1">
+      <c r="A6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" thickBot="1">
+      <c r="A8" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1"/>
-    <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="C8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1">
+      <c r="A12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="31" thickBot="1">
+      <c r="A13" s="28" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="7" t="s">
+      <c r="B13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="9" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2091,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2106,12 +2244,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2121,32 +2259,32 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
@@ -2156,32 +2294,32 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="2" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2192,6 +2330,310 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1">
+      <c r="A3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
+    <row r="6" spans="1:4" ht="16" thickBot="1">
+      <c r="A6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1"/>
+    <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
+      <c r="A5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1">
+      <c r="A3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1"/>
+    <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
+      <c r="A5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2207,7 +2649,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2220,12 +2662,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2235,82 +2677,82 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="31" thickBot="1">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="7" t="s">
@@ -2320,21 +2762,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
       <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -2356,10 +2798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2372,12 +2814,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2387,46 +2829,58 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1">
+      <c r="A7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2448,7 +2902,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2461,12 +2915,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2476,44 +2930,44 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -2523,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2562,12 +3016,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2577,130 +3031,130 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="46" thickBot="1">
       <c r="A10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
       <c r="A11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -2710,21 +3164,21 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7"/>
     </row>
@@ -2762,12 +3216,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2777,44 +3231,44 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -2824,10 +3278,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2864,12 +3318,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2879,70 +3333,70 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="7" t="s">
@@ -2952,48 +3406,48 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3017,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D16" sqref="A6:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3033,12 +3487,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3048,124 +3502,132 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="7" t="s">
+    <row r="10" spans="1:4" ht="16" thickBot="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="7" t="s">
+    <row r="11" spans="1:4" ht="16" thickBot="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31" thickBot="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="7" t="s">
+    <row r="13" spans="1:4" ht="31" thickBot="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="7" t="s">
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="7" t="s">
-        <v>70</v>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C8:C15"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3195,12 +3657,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3210,46 +3672,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="76" thickBot="1">
       <c r="A4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -3259,88 +3721,88 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="7" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="624" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="624" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="144">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,14 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Non-Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>push notification token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,10 +606,6 @@
   </si>
   <si>
     <t>Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(32)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1466,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1492,7 +1476,7 @@
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A4" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -1502,46 +1486,46 @@
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -1552,7 +1536,7 @@
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
       <c r="A8" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1612,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1620,10 +1604,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1632,20 +1616,20 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -1714,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1722,10 +1706,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1734,20 +1718,20 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -1769,13 +1753,13 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -1828,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1836,10 +1820,10 @@
     </row>
     <row r="3" spans="1:5" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1849,7 +1833,7 @@
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
       <c r="A6" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -1871,16 +1855,16 @@
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
       <c r="A8" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1">
@@ -1888,7 +1872,7 @@
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
@@ -1896,7 +1880,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1953,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1961,10 +1945,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1973,10 +1957,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -1985,22 +1969,22 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2070,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -2078,10 +2062,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
@@ -2090,20 +2074,20 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -2125,16 +2109,16 @@
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
       <c r="A8" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
@@ -2142,7 +2126,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
@@ -2150,7 +2134,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
@@ -2158,33 +2142,33 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
       <c r="A13" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>121</v>
-      </c>
       <c r="C13" s="28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -2192,7 +2176,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
@@ -2200,7 +2184,7 @@
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2267,10 +2251,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2280,7 +2264,7 @@
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -2302,16 +2286,16 @@
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
       <c r="A7" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
@@ -2319,7 +2303,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2383,10 +2367,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
@@ -2395,20 +2379,20 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -2425,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2473,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
@@ -2499,7 +2483,7 @@
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -2577,10 +2561,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
@@ -2590,7 +2574,7 @@
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -2646,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2663,7 +2647,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -2677,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -2685,7 +2669,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2709,7 +2693,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -2719,71 +2703,45 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="31" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2829,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -2837,20 +2795,20 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -2872,13 +2830,13 @@
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="13"/>
     </row>
@@ -2930,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -2950,20 +2908,20 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -3002,7 +2960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3031,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -3039,7 +2997,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3051,10 +3009,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3063,10 +3021,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3075,46 +3033,46 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -3123,34 +3081,34 @@
     </row>
     <row r="10" spans="1:4" ht="46" thickBot="1">
       <c r="A10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
       <c r="A11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
       <c r="A13" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -3172,13 +3130,13 @@
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7"/>
     </row>
@@ -3231,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -3239,10 +3197,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3251,10 +3209,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -3264,7 +3222,7 @@
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -3333,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -3341,58 +3299,58 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A9" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3414,16 +3372,16 @@
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
       <c r="A11" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
@@ -3431,7 +3389,7 @@
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
@@ -3439,7 +3397,7 @@
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -3447,7 +3405,7 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -3510,10 +3468,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3523,7 +3481,7 @@
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A6" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -3545,16 +3503,16 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
@@ -3562,7 +3520,7 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
@@ -3570,7 +3528,7 @@
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
@@ -3578,7 +3536,7 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
@@ -3586,7 +3544,7 @@
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
@@ -3594,7 +3552,7 @@
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -3602,7 +3560,7 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
@@ -3610,7 +3568,7 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
@@ -3618,7 +3576,7 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -3680,10 +3638,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3692,22 +3650,22 @@
     </row>
     <row r="4" spans="1:4" ht="76" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -3729,64 +3687,64 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
       <c r="A13" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -3794,7 +3752,7 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
@@ -3802,7 +3760,7 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="624" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="624" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="153">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,6 +606,42 @@
   </si>
   <si>
     <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signIn 1:signUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resendType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +871,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -925,8 +961,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,6 +1007,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,7 +1064,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="95">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -1065,6 +1110,9 @@
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1109,6 +1157,9 @@
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1449,40 +1500,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -1497,10 +1548,10 @@
       <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -1515,10 +1566,10 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -1531,18 +1582,18 @@
         <v>11</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1581,12 +1632,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1628,12 +1679,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1683,12 +1734,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1730,12 +1781,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1797,12 +1848,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1832,12 +1883,12 @@
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -1854,13 +1905,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1868,17 +1919,17 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="7" t="s">
         <v>127</v>
       </c>
@@ -1922,12 +1973,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1983,12 +2034,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -2039,12 +2090,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -2086,12 +2137,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
@@ -2108,13 +2159,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2122,25 +2173,25 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="9" t="s">
         <v>119</v>
       </c>
@@ -2158,13 +2209,13 @@
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -2172,17 +2223,17 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="9" t="s">
         <v>120</v>
       </c>
@@ -2228,12 +2279,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2263,12 +2314,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
@@ -2285,13 +2336,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2299,9 +2350,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="2" t="s">
         <v>125</v>
       </c>
@@ -2344,12 +2395,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2391,12 +2442,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
@@ -2430,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2447,66 +2498,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1">
+      <c r="A4" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1">
+      <c r="A6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1"/>
+    <row r="9" spans="1:4" ht="16" thickBot="1">
+      <c r="A9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="14" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1">
+      <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2538,12 +2627,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2573,12 +2662,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="14" t="s">
@@ -2632,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2646,12 +2735,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2705,12 +2794,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -2759,7 +2848,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2772,12 +2861,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2807,12 +2896,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="13" t="s">
@@ -2860,7 +2949,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2873,12 +2962,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2920,12 +3009,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -2974,12 +3063,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3107,12 +3196,12 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -3174,12 +3263,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3221,12 +3310,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -3276,12 +3365,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3349,12 +3438,12 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="7" t="s">
@@ -3371,13 +3460,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -3385,25 +3474,25 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="7" t="s">
         <v>84</v>
       </c>
@@ -3445,12 +3534,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3480,12 +3569,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="10" t="s">
@@ -3502,13 +3591,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>86</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -3516,65 +3605,65 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="10" t="s">
         <v>129</v>
       </c>
@@ -3615,12 +3704,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3664,12 +3753,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -3734,13 +3823,13 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -3748,17 +3837,17 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="7" t="s">
         <v>90</v>
       </c>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="624" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="624" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="156">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,23 +129,447 @@
     <t>Non-Null when result is false</t>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">All interface should use JSON as data format to send the Value. All respnse will contain the Common Response, if the key named success is false, this response will only contain the Common Response. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{msg:"Inviald email",success:false}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>userid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array of content, content's type is string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvaliduser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiator:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:location 1:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-Null</t>
+    <t>starttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All time format is yy:mm:dd:hh:mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvaliduser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the user has already vote, they don't have to input the password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selection's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historylist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentvalidvote:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvaliduser:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime:datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime:datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote's subkey, if user has already joined this vote, don't return that vote record.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votefnished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicatelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checktype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signup 1:signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollnumber:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finaloptionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participatorlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participator's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emaillist:array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiatorid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,23 +577,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">All interface should use JSON as data format to send the Value. All respnse will contain the Common Response, if the key named success is false, this response will only contain the Common Response. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{msg:"Inviald email",success:false}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,23 +605,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
+    <t>0:signIn 1:signUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resendType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,50 +633,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longtitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,191 +645,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Response Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array of content, content's type is string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxvaliduser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longtitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>votelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiator:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:location 1:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All time format is yy:mm:dd:hh:mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxvaliduser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If the user has already vote, they don't have to input the password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selection's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historylist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>history's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentvalidvote:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxvaliduser:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime:datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endtime:datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vote's subkey, if user has already joined this vote, don't return that vote record.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>votefnished</t>
+    <t>return when use Email signin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -445,203 +653,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>duplicatelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checktype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signup 1:signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pollnumber:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finaloptionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participatorlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participator's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emaillist:array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiatorid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hasPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signIn 1:signUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resendType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +883,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -967,8 +979,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1010,6 +1024,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,7 +1081,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="97">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -1113,6 +1130,7 @@
     <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1160,6 +1178,7 @@
     <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1500,58 +1519,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
+      <c r="A4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -1566,14 +1585,14 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="23"/>
+      <c r="E6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>22</v>
@@ -1582,18 +1601,18 @@
         <v>11</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
-      <c r="A8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1632,12 +1651,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1655,10 +1674,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1667,24 +1686,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1734,12 +1753,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1757,10 +1776,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1769,24 +1788,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1804,13 +1823,13 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -1848,12 +1867,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1871,10 +1890,10 @@
     </row>
     <row r="3" spans="1:5" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1883,12 +1902,12 @@
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -1905,33 +1924,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1956,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1973,12 +1992,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1996,10 +2015,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2008,10 +2027,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -2020,39 +2039,65 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1">
+      <c r="A9" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="31" thickBot="1">
+      <c r="A10" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2090,12 +2135,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -2113,10 +2158,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
@@ -2125,24 +2170,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
@@ -2159,49 +2204,49 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
-      <c r="A8" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="9" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>18</v>
@@ -2209,33 +2254,33 @@
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="D13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2279,12 +2324,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2302,10 +2347,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2314,12 +2359,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
@@ -2336,25 +2381,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="2" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2395,12 +2440,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2418,10 +2463,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
@@ -2430,24 +2475,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
@@ -2460,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2483,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2498,85 +2543,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1">
+      <c r="A4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
+      <c r="A5" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1">
+      <c r="A6" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="A9" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="14" t="s">
@@ -2627,12 +2672,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2650,10 +2695,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
@@ -2662,12 +2707,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="14" t="s">
@@ -2719,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2735,12 +2780,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2758,7 +2803,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2782,7 +2827,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -2794,12 +2839,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -2814,18 +2859,6 @@
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2845,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2861,12 +2894,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2884,24 +2917,24 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="13" t="s">
@@ -2916,18 +2949,6 @@
       <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2946,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2962,12 +2983,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3003,32 +3024,44 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3063,12 +3096,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3086,7 +3119,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3098,10 +3131,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3110,10 +3143,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3122,7 +3155,7 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -3134,10 +3167,10 @@
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -3146,22 +3179,22 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -3170,24 +3203,24 @@
     </row>
     <row r="10" spans="1:4" ht="46" thickBot="1">
       <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
       <c r="A11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -3196,12 +3229,12 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -3219,13 +3252,13 @@
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7"/>
     </row>
@@ -3263,12 +3296,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3286,10 +3319,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3298,10 +3331,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -3310,12 +3343,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -3365,12 +3398,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3388,36 +3421,36 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -3426,10 +3459,10 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -3438,12 +3471,12 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="7" t="s">
@@ -3460,41 +3493,41 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3534,12 +3567,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3557,10 +3590,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3569,12 +3602,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="10" t="s">
@@ -3591,81 +3624,81 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="10" t="s">
+    <row r="10" spans="1:4" ht="16" thickBot="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="10" t="s">
+    <row r="11" spans="1:4" ht="16" thickBot="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31" thickBot="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="10" t="s">
+    <row r="13" spans="1:4" ht="31" thickBot="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="10" t="s">
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3704,12 +3737,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3727,10 +3760,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3739,26 +3772,26 @@
     </row>
     <row r="4" spans="1:4" ht="76" thickBot="1">
       <c r="A4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -3776,34 +3809,34 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -3812,10 +3845,10 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>18</v>
@@ -3823,33 +3856,33 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="7" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -1978,7 +1978,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -1978,7 +1978,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2529,7 +2529,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2881,7 +2881,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="624" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="624" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="159">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,6 +654,18 @@
   </si>
   <si>
     <t>hasPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +895,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -981,8 +993,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1027,6 +1041,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1081,7 +1098,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="99">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -1131,6 +1148,7 @@
     <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1179,6 +1197,7 @@
     <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1519,40 +1538,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -1567,10 +1586,10 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -1585,10 +1604,10 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -1601,18 +1620,18 @@
         <v>11</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1651,12 +1670,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1698,12 +1717,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1753,12 +1772,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1800,12 +1819,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1867,12 +1886,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1902,12 +1921,12 @@
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -1924,13 +1943,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1938,17 +1957,17 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="7" t="s">
         <v>126</v>
       </c>
@@ -1977,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1992,12 +2011,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2053,12 +2072,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
@@ -2135,12 +2154,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -2182,12 +2201,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
@@ -2204,13 +2223,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2218,25 +2237,25 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="9" t="s">
         <v>118</v>
       </c>
@@ -2254,13 +2273,13 @@
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -2268,17 +2287,17 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="9" t="s">
         <v>119</v>
       </c>
@@ -2324,12 +2343,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2359,12 +2378,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
@@ -2381,13 +2400,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2395,9 +2414,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="2" t="s">
         <v>124</v>
       </c>
@@ -2440,12 +2459,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2487,12 +2506,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
@@ -2543,12 +2562,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -2616,12 +2635,12 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="14" t="s">
@@ -2672,12 +2691,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2707,12 +2726,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="14" t="s">
@@ -2780,12 +2799,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2839,12 +2858,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -2894,12 +2913,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2929,12 +2948,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="13" t="s">
@@ -2983,12 +3002,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3030,12 +3049,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="15" t="s">
@@ -3096,12 +3115,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3229,12 +3248,12 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -3296,12 +3315,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3343,12 +3362,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -3382,10 +3401,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3398,12 +3417,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3471,63 +3490,77 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="7" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="17" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1">
+      <c r="A15" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3567,12 +3600,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3602,12 +3635,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="10" t="s">
@@ -3624,13 +3657,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>85</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -3638,65 +3671,65 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="10" t="s">
         <v>128</v>
       </c>
@@ -3737,12 +3770,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3786,12 +3819,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -3856,13 +3889,13 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -3870,17 +3903,17 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="7" t="s">
         <v>89</v>
       </c>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="158">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,7 +281,379 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>longtitude</t>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiator:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:location 1:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All time format is yy:mm:dd:hh:mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvaliduser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the user has already vote, they don't have to input the password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selection's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historylist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentvalidvote:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxvaliduser:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime:datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime:datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote's subkey, if user has already joined this vote, don't return that vote record.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votefnished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicatelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checktype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signup 1:signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollnumber:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finaloptionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participatorlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participator's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emaillist:array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiatorid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signIn 1:signUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resendType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return when use Email signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,383 +661,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>votelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiator:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:location 1:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All time format is yy:mm:dd:hh:mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxvaliduser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If the user has already vote, they don't have to input the password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selection's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historylist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>history's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentvalidvote:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxvaliduser:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime:datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endtime:datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vote's subkey, if user has already joined this vote, don't return that vote record.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>votefnished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicatelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checktype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signup 1:signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pollnumber:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finaloptionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participatorlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participator's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emaillist:array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiatorid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signIn 1:signUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resendType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return when use Email signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>longitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1625,7 +1621,7 @@
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
       <c r="A8" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1696,7 +1692,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1705,10 +1701,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>35</v>
@@ -1795,10 +1791,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1810,7 +1806,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>35</v>
@@ -1842,10 +1838,10 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>34</v>
@@ -1912,7 +1908,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1944,7 +1940,7 @@
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
       <c r="A8" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>56</v>
@@ -1953,7 +1949,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1">
@@ -1961,7 +1957,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
@@ -1969,7 +1965,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2037,7 +2033,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2046,7 +2042,7 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>24</v>
@@ -2058,7 +2054,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>53</v>
@@ -2067,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
@@ -2095,28 +2091,28 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="31" thickBot="1">
       <c r="A10" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2176,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
@@ -2189,13 +2185,13 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -2224,16 +2220,16 @@
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
       <c r="A8" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
@@ -2241,7 +2237,7 @@
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
@@ -2249,7 +2245,7 @@
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
@@ -2257,15 +2253,15 @@
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>18</v>
@@ -2274,16 +2270,16 @@
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
       <c r="A13" s="31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -2291,7 +2287,7 @@
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
@@ -2299,7 +2295,7 @@
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2397,7 @@
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
       <c r="A7" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>56</v>
@@ -2410,7 +2406,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
@@ -2418,7 +2414,7 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2478,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>42</v>
@@ -2494,13 +2490,13 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -2524,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
@@ -2597,40 +2593,40 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
@@ -2714,7 +2710,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>42</v>
@@ -2800,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2822,7 +2818,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2846,7 +2842,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -3072,13 +3068,13 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -3236,7 +3232,7 @@
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
       <c r="A11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>53</v>
@@ -3404,7 +3400,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3449,15 +3445,15 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -3466,10 +3462,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -3478,7 +3474,7 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>53</v>
@@ -3513,7 +3509,7 @@
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
       <c r="A11" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>56</v>
@@ -3522,7 +3518,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
@@ -3530,7 +3526,7 @@
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
@@ -3538,7 +3534,7 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -3546,21 +3542,21 @@
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3626,7 +3622,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3658,16 +3654,16 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
@@ -3675,7 +3671,7 @@
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
@@ -3683,7 +3679,7 @@
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
@@ -3691,7 +3687,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
@@ -3699,7 +3695,7 @@
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
@@ -3707,7 +3703,7 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -3715,7 +3711,7 @@
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
@@ -3723,7 +3719,7 @@
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
@@ -3731,7 +3727,7 @@
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3793,10 +3789,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3805,16 +3801,16 @@
     </row>
     <row r="4" spans="1:4" ht="76" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
@@ -3845,7 +3841,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>34</v>
@@ -3854,13 +3850,13 @@
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -3869,7 +3865,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -3878,7 +3874,7 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>53</v>
@@ -3890,16 +3886,16 @@
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
       <c r="A13" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -3907,7 +3903,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
@@ -3915,7 +3911,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -3400,7 +3400,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="624" activeTab="6"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="resendCode" sheetId="17" r:id="rId17"/>
     <sheet name="automaticGeneratePassword" sheetId="18" r:id="rId18"/>
     <sheet name="forgetPassword" sheetId="19" r:id="rId19"/>
+    <sheet name="ResolveVote" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="158">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,7 +418,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>votefnished</t>
+    <t>duplicatelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checktype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signup 1:signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollnumber:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finaloptionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participatorlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participator's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emaillist:array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiatorid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signIn 1:signUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resendType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return when use Email signin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -425,243 +630,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>duplicatelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
+    <t>hasPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checktype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signup 1:signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pollnumber:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finaloptionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participatorlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participator's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emaillist:array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiatorid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signIn 1:signUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resendType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return when use Email signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +892,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -991,8 +992,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1037,6 +1040,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1094,7 +1103,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="101">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -1145,6 +1154,7 @@
     <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1194,6 +1204,7 @@
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1534,40 +1545,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -1582,10 +1593,10 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -1600,10 +1611,10 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -1616,18 +1627,18 @@
         <v>11</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1666,12 +1677,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1713,12 +1724,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1752,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1768,12 +1779,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1791,7 +1802,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -1806,7 +1817,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>35</v>
@@ -1815,12 +1826,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1835,18 +1846,6 @@
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1868,7 +1867,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1882,12 +1881,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1917,65 +1916,65 @@
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="7" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="7" t="s">
-        <v>122</v>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="E10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2007,12 +2006,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2033,7 +2032,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2042,7 +2041,7 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>24</v>
@@ -2054,7 +2053,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>53</v>
@@ -2063,17 +2062,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
@@ -2091,28 +2090,28 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="31" thickBot="1">
       <c r="A10" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2150,12 +2149,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -2176,7 +2175,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
@@ -2185,24 +2184,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
@@ -2219,13 +2218,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
-      <c r="A8" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2233,35 +2232,35 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>18</v>
@@ -2269,33 +2268,33 @@
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="31" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2339,12 +2338,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2374,12 +2373,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
@@ -2396,25 +2395,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2455,12 +2454,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2478,7 +2477,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>42</v>
@@ -2490,24 +2489,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
@@ -2520,7 +2519,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2558,12 +2557,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -2584,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
@@ -2593,50 +2592,50 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="14" t="s">
@@ -2673,7 +2672,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2687,12 +2686,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2710,7 +2709,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>42</v>
@@ -2722,12 +2721,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="14" t="s">
@@ -2795,12 +2794,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2818,7 +2817,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2842,7 +2841,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -2854,12 +2853,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -2883,6 +2882,96 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1">
+      <c r="A3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1"/>
+    <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
+      <c r="A5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1">
+      <c r="A6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2909,12 +2998,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2944,12 +3033,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="13" t="s">
@@ -2998,12 +3087,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3045,12 +3134,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="15" t="s">
@@ -3068,13 +3157,13 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -3111,12 +3200,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3244,12 +3333,12 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -3311,12 +3400,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3358,12 +3447,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -3399,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3413,12 +3502,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3450,10 +3539,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -3462,10 +3551,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -3486,12 +3575,12 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="17" t="s">
@@ -3508,13 +3597,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -3522,38 +3611,38 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>67</v>
@@ -3596,12 +3685,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3631,12 +3720,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="10" t="s">
@@ -3653,13 +3742,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -3667,67 +3756,67 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3766,12 +3855,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3815,12 +3904,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -3885,13 +3974,13 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -3899,17 +3988,17 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="7" t="s">
         <v>85</v>
       </c>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="159">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,14 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,18 +358,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>content:string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>contentid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>historylist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,6 +647,26 @@
   </si>
   <si>
     <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionlist's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1712,7 +1716,7 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>71</v>
@@ -1802,7 +1806,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -1817,7 +1821,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>35</v>
@@ -1939,16 +1943,16 @@
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
       <c r="A8" s="32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1">
@@ -1956,7 +1960,7 @@
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
@@ -1964,7 +1968,7 @@
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2032,7 +2036,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2041,7 +2045,7 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>24</v>
@@ -2053,7 +2057,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>53</v>
@@ -2062,7 +2066,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
@@ -2090,28 +2094,28 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="31" thickBot="1">
       <c r="A10" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2179,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
@@ -2184,13 +2188,13 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -2219,16 +2223,16 @@
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
       <c r="A8" s="33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
@@ -2236,7 +2240,7 @@
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
@@ -2244,7 +2248,7 @@
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
@@ -2252,15 +2256,15 @@
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>18</v>
@@ -2269,16 +2273,16 @@
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
       <c r="A13" s="33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -2286,7 +2290,7 @@
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
@@ -2294,7 +2298,7 @@
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2396,7 +2400,7 @@
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
       <c r="A7" s="32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>56</v>
@@ -2405,7 +2409,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
@@ -2413,7 +2417,7 @@
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2481,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>42</v>
@@ -2489,13 +2493,13 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -2519,7 +2523,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
@@ -2592,40 +2596,40 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
@@ -2709,7 +2713,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>42</v>
@@ -2795,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A1" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2817,7 +2821,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2841,7 +2845,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -2894,7 +2898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2932,7 +2936,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>42</v>
@@ -3157,13 +3161,13 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -3387,7 +3391,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3489,7 +3493,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3539,10 +3543,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -3551,10 +3555,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -3607,7 +3611,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
@@ -3631,18 +3635,18 @@
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>67</v>
@@ -3743,16 +3747,16 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
@@ -3760,7 +3764,7 @@
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
@@ -3768,7 +3772,7 @@
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
@@ -3776,7 +3780,7 @@
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
@@ -3784,7 +3788,7 @@
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
@@ -3792,7 +3796,7 @@
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -3800,7 +3804,7 @@
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
@@ -3816,7 +3820,7 @@
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3841,8 +3845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3899,13 +3903,13 @@
         <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -3942,10 +3946,10 @@
         <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -3954,7 +3958,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -3963,7 +3967,7 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>53</v>
@@ -3975,16 +3979,16 @@
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
       <c r="A13" s="31" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -3992,7 +3996,7 @@
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
@@ -4000,7 +4004,7 @@
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="7" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="161">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,295 +378,303 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>maxvaliduser:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime:datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote's subkey, if user has already joined this vote, don't return that vote record.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicatelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checktype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signup 1:signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollnumber:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participatorlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participator's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emaillist:array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiatorid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signIn 1:signUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resendType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return when use Email signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionlist's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:initiator 2:particitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>currentvalidvote:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxvaliduser:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>createtime:datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>endtime:datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vote's subkey, if user has already joined this vote, don't return that vote record.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicatelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>voteoptionid:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checktype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signup 1:signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pollnumber:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finaloptionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participatorlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participator's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>slectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emaillist:array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiatorid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signIn 1:signUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resendType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return when use Email signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optionlist's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +904,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -998,8 +1006,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1044,6 +1054,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1107,7 +1120,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="103">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -1159,6 +1172,7 @@
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1209,6 +1223,7 @@
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1549,40 +1564,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -1597,10 +1612,10 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -1615,10 +1630,10 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -1631,18 +1646,18 @@
         <v>11</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1681,12 +1696,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1716,7 +1731,7 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>71</v>
@@ -1728,12 +1743,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1783,12 +1798,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1806,7 +1821,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -1821,7 +1836,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>35</v>
@@ -1830,12 +1845,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1885,12 +1900,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1920,12 +1935,12 @@
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1">
       <c r="A7" s="18" t="s">
@@ -1942,33 +1957,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="18" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2010,12 +2025,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2036,7 +2051,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2045,7 +2060,7 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>24</v>
@@ -2057,7 +2072,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>53</v>
@@ -2066,17 +2081,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
@@ -2094,28 +2109,28 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="31" thickBot="1">
       <c r="A10" s="15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2136,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2153,12 +2168,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -2179,7 +2194,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
@@ -2188,24 +2203,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
@@ -2222,13 +2237,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
-      <c r="A8" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2236,76 +2251,64 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31" thickBot="1">
+      <c r="A12" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>105</v>
-      </c>
+    <row r="13" spans="1:4" ht="16" thickBot="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="9" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A8:A11"/>
@@ -2342,12 +2345,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2377,12 +2380,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
@@ -2399,25 +2402,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2458,12 +2461,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2481,7 +2484,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>42</v>
@@ -2493,24 +2496,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
@@ -2523,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2550,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2561,12 +2564,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -2587,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
@@ -2596,50 +2599,50 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="14" t="s">
@@ -2690,12 +2693,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2713,7 +2716,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>42</v>
@@ -2725,12 +2728,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="14" t="s">
@@ -2798,12 +2801,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2821,7 +2824,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2845,7 +2848,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -2857,12 +2860,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -2913,12 +2916,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="19" t="s">
@@ -2936,7 +2939,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>42</v>
@@ -2948,12 +2951,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="19" t="s">
@@ -3002,12 +3005,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3037,12 +3040,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="13" t="s">
@@ -3091,12 +3094,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3138,12 +3141,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="15" t="s">
@@ -3161,13 +3164,13 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -3204,12 +3207,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3337,12 +3340,12 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -3404,12 +3407,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3451,12 +3454,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -3506,12 +3509,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3543,10 +3546,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -3555,10 +3558,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -3579,12 +3582,12 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="17" t="s">
@@ -3601,52 +3604,52 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>67</v>
@@ -3673,10 +3676,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="A6:D16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3689,47 +3692,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="31" thickBot="1">
+      <c r="A4" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="10" t="s">
@@ -3746,13 +3763,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -3760,67 +3777,81 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31" thickBot="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31" thickBot="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31" thickBot="1">
+      <c r="A17" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3833,6 +3864,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3845,7 +3877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3859,12 +3891,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3908,12 +3940,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="A7" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -3946,7 +3978,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>75</v>
@@ -3958,7 +3990,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -3978,33 +4010,33 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="164">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,18 @@
   </si>
   <si>
     <t>slectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servercurrentime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +1021,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,6 +1066,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1564,40 +1579,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -1612,10 +1627,10 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -1630,10 +1645,10 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -1646,18 +1661,18 @@
         <v>11</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1696,12 +1711,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1743,12 +1758,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1798,12 +1813,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1845,12 +1860,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1900,12 +1915,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1935,12 +1950,12 @@
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1">
       <c r="A7" s="18" t="s">
@@ -1957,13 +1972,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -1971,17 +1986,17 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="18" t="s">
         <v>110</v>
       </c>
@@ -2025,12 +2040,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2086,12 +2101,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
@@ -2153,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2168,12 +2183,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -2215,12 +2230,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
@@ -2237,13 +2252,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2251,37 +2266,37 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>102</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2289,17 +2304,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="9" t="s">
         <v>106</v>
       </c>
@@ -2345,12 +2360,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2380,12 +2395,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
@@ -2402,13 +2417,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2416,9 +2431,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="2" t="s">
         <v>109</v>
       </c>
@@ -2461,12 +2476,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2508,12 +2523,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
@@ -2564,12 +2579,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -2637,12 +2652,12 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="14" t="s">
@@ -2693,12 +2708,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2728,12 +2743,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="14" t="s">
@@ -2801,12 +2816,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2860,12 +2875,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -2916,12 +2931,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="19" t="s">
@@ -2951,12 +2966,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="19" t="s">
@@ -3005,12 +3020,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3040,12 +3055,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="13" t="s">
@@ -3094,12 +3109,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3141,12 +3156,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="15" t="s">
@@ -3207,12 +3222,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3340,12 +3355,12 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -3407,12 +3422,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3454,12 +3469,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -3509,12 +3524,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3582,12 +3597,12 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="17" t="s">
@@ -3604,13 +3619,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -3618,25 +3633,25 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="17" t="s">
         <v>77</v>
       </c>
@@ -3676,10 +3691,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3692,12 +3707,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="20" t="s">
@@ -3741,118 +3756,130 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="10" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="10" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="10" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="10" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31" thickBot="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>156</v>
       </c>
+    </row>
+    <row r="18" spans="1:4" ht="31" thickBot="1">
+      <c r="A18" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3891,12 +3918,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3940,12 +3967,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -4010,13 +4037,13 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -4024,17 +4051,17 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="7" t="s">
         <v>150</v>
       </c>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="167">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vote's subkey, if user has already joined this vote, don't return that vote record.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -687,6 +683,22 @@
   </si>
   <si>
     <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1033,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,6 +1078,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1579,40 +1594,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -1627,10 +1642,10 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -1645,10 +1660,10 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -1661,18 +1676,18 @@
         <v>11</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1697,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1711,59 +1726,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
-      <c r="A4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1">
+      <c r="A5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1813,12 +1840,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1836,7 +1863,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -1851,7 +1878,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>35</v>
@@ -1860,12 +1887,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1915,12 +1942,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1950,12 +1977,12 @@
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1">
       <c r="A7" s="18" t="s">
@@ -1972,33 +1999,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2040,12 +2067,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2066,7 +2093,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2075,7 +2102,7 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>24</v>
@@ -2087,7 +2114,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>53</v>
@@ -2096,17 +2123,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
@@ -2124,28 +2151,28 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="31" thickBot="1">
       <c r="A10" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2183,12 +2210,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -2209,7 +2236,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
@@ -2218,24 +2245,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
@@ -2252,13 +2279,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
-      <c r="A8" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="A8" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2266,57 +2293,57 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31" thickBot="1">
+      <c r="A12" s="36" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="9" t="s">
+      <c r="B12" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="9" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2360,12 +2387,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2395,12 +2422,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
@@ -2417,25 +2444,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2476,12 +2503,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2499,7 +2526,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>42</v>
@@ -2511,24 +2538,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
@@ -2541,7 +2568,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2579,12 +2606,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -2605,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
@@ -2614,50 +2641,50 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="14" t="s">
@@ -2708,12 +2735,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2731,7 +2758,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>42</v>
@@ -2743,12 +2770,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="14" t="s">
@@ -2816,12 +2843,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2839,7 +2866,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2863,7 +2890,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -2875,12 +2902,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -2931,12 +2958,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="19" t="s">
@@ -2954,7 +2981,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>42</v>
@@ -2966,12 +2993,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="19" t="s">
@@ -3020,12 +3047,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3055,12 +3082,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="13" t="s">
@@ -3109,12 +3136,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3156,12 +3183,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="15" t="s">
@@ -3179,13 +3206,13 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="C8" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -3222,12 +3249,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3355,12 +3382,12 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -3422,12 +3449,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3469,12 +3496,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -3524,12 +3551,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3561,10 +3588,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -3573,10 +3600,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -3597,12 +3624,12 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="17" t="s">
@@ -3619,52 +3646,52 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>67</v>
@@ -3693,8 +3720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3707,12 +3734,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="20" t="s">
@@ -3742,26 +3769,26 @@
     </row>
     <row r="4" spans="1:4" ht="31" thickBot="1">
       <c r="A4" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="21" t="s">
@@ -3778,13 +3805,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3792,92 +3819,92 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31" thickBot="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31" thickBot="1">
       <c r="A17" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="31" thickBot="1">
       <c r="A18" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="D18" s="21"/>
     </row>
@@ -3918,12 +3945,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3967,12 +3994,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -4005,7 +4032,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>75</v>
@@ -4017,7 +4044,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -4037,33 +4064,33 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="180">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,39 +450,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>state:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participatorlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participator's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emaillist:array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiatorid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signIn 1:signUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resendType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return when use Email signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>voteoptionid:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participatorlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participator's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emaillist:array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiatorid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
+    <t>optionlist's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -494,11 +650,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenid</t>
+    <t>1:initiator 2:particitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentvalidvote:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servercurrentime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,19 +674,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
+    <t>oldpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime:datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,11 +718,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>firstName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isfinished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,7 +730,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lastName</t>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -546,131 +738,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signIn 1:signUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resendType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return when use Email signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optionlist's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requestType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:initiator 2:particitan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentvalidvote:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime:datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slectionlist</t>
+    <t>endtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -678,27 +750,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldpass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newpass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>content:string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +809,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -882,43 +934,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -1033,7 +1048,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1101,7 +1116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1138,15 +1156,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1594,40 +1603,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -1642,10 +1651,10 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="62" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -1660,10 +1669,10 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -1676,18 +1685,18 @@
         <v>11</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickTop="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1712,7 +1721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1726,12 +1735,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="22" t="s">
@@ -1761,7 +1770,7 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>71</v>
@@ -1773,24 +1782,24 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>163</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1840,12 +1849,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1887,12 +1896,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -1942,12 +1951,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1977,12 +1986,12 @@
     </row>
     <row r="5" spans="1:5" ht="16" thickBot="1"/>
     <row r="6" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1">
       <c r="A7" s="18" t="s">
@@ -1999,13 +2008,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="31" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -2013,19 +2022,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2067,12 +2076,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2128,12 +2137,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
@@ -2151,28 +2160,28 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="31" thickBot="1">
       <c r="A10" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2193,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2210,12 +2219,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -2245,75 +2254,75 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
       <c r="A8" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="9" t="s">
-        <v>81</v>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="23" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="9" t="s">
-        <v>104</v>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="23" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
@@ -2326,25 +2335,85 @@
       <c r="C12" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="9" t="s">
-        <v>158</v>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="23" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1">
+      <c r="A15" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1">
+      <c r="A16" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" thickBot="1">
+      <c r="A17" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" ht="31" thickBot="1">
+      <c r="A18" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" thickBot="1">
+      <c r="A19" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2373,7 +2442,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2387,12 +2456,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2422,12 +2491,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
@@ -2444,25 +2513,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2503,12 +2572,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2526,7 +2595,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>42</v>
@@ -2538,24 +2607,24 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
@@ -2568,7 +2637,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2606,12 +2675,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -2632,7 +2701,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
@@ -2641,50 +2710,50 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="14" t="s">
@@ -2735,12 +2804,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2758,7 +2827,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>42</v>
@@ -2770,12 +2839,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="14" t="s">
@@ -2843,12 +2912,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2866,7 +2935,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2890,7 +2959,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -2902,12 +2971,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -2958,12 +3027,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="19" t="s">
@@ -2981,7 +3050,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>42</v>
@@ -2993,12 +3062,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="19" t="s">
@@ -3047,12 +3116,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3082,12 +3151,12 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1"/>
     <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="13" t="s">
@@ -3136,12 +3205,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3183,12 +3252,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="15" t="s">
@@ -3206,13 +3275,13 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>133</v>
-      </c>
       <c r="C8" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -3249,12 +3318,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3382,12 +3451,12 @@
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1"/>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -3449,12 +3518,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3496,12 +3565,12 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -3551,12 +3620,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3588,10 +3657,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -3600,10 +3669,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -3624,12 +3693,12 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
     <row r="9" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="17" t="s">
@@ -3646,13 +3715,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" thickBot="1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -3660,38 +3729,38 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>67</v>
@@ -3721,7 +3790,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3734,12 +3803,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="20" t="s">
@@ -3769,26 +3838,26 @@
     </row>
     <row r="4" spans="1:4" ht="31" thickBot="1">
       <c r="A4" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
     <row r="6" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="21" t="s">
@@ -3805,13 +3874,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -3819,92 +3888,92 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31" thickBot="1">
       <c r="A17" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="31" thickBot="1">
       <c r="A18" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" s="21"/>
     </row>
@@ -3932,7 +4001,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3945,12 +4014,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3994,12 +4063,12 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
-      <c r="A7" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="7" t="s">
@@ -4032,7 +4101,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>75</v>
@@ -4044,7 +4113,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -4064,33 +4133,33 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
-      <c r="A13" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Design/VoteInterfaceDocument.xlsx
+++ b/Documents/Design/VoteInterfaceDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14080" tabRatio="624" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="181">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,327 +430,331 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>userselection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userselection's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participator's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emaillist:array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiatorid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:signIn 1:signUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resendType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return when use Email signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionlist's subkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:initiator 2:particitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentvalidvote:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slectionlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servercurrentime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime:datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isfinished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servercurrentime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voteoptionid:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pollnumber:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userselection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userselection's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state:int</t>
+    <t>name:string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>participatorlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participator's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emaillist:array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiatorid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:signIn 1:signUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resendType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return when use Email signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optionlist's subkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requestType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:initiator 2:particitan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentvalidvote:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slectionlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>servercurrentime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldpass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newpass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime:datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voteoptionid:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isfinished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>servercurrentime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content:string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1770,7 +1774,7 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>71</v>
@@ -1782,13 +1786,13 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>163</v>
       </c>
       <c r="D5" s="22"/>
     </row>
@@ -2012,7 +2016,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>18</v>
@@ -2034,7 +2038,7 @@
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2160,28 +2164,28 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
       <c r="A9" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="31" thickBot="1">
       <c r="A10" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2204,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2254,13 +2258,13 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -2289,13 +2293,13 @@
     </row>
     <row r="8" spans="1:4" ht="31" thickBot="1">
       <c r="A8" s="36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>80</v>
@@ -2306,7 +2310,7 @@
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1">
@@ -2314,7 +2318,7 @@
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="23" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
@@ -2322,21 +2326,21 @@
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
       <c r="D11" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" thickBot="1">
       <c r="A12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="D12" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
@@ -2344,7 +2348,7 @@
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="23" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -2352,66 +2356,66 @@
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
       <c r="A16" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>173</v>
       </c>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" ht="16" thickBot="1">
       <c r="A17" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" ht="31" thickBot="1">
       <c r="A18" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1">
       <c r="A19" s="23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D19" s="23"/>
     </row>
@@ -2441,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2514,7 +2518,7 @@
     </row>
     <row r="7" spans="1:4" ht="31" thickBot="1">
       <c r="A7" s="36" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>56</v>
@@ -2523,7 +2527,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
@@ -2531,7 +2535,7 @@
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2595,7 +2599,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>42</v>
@@ -2607,13 +2611,13 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -2637,7 +2641,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2705,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
@@ -2710,40 +2714,40 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1"/>
@@ -2827,7 +2831,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>42</v>
@@ -2913,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2935,7 +2939,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2959,7 +2963,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -3050,7 +3054,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>42</v>
@@ -3275,13 +3279,13 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -3657,10 +3661,10 @@
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -3669,10 +3673,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -3754,13 +3758,13 @@
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>67</v>
@@ -3838,16 +3842,16 @@
     </row>
     <row r="4" spans="1:4" ht="31" thickBot="1">
       <c r="A4" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>151</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1"/>
@@ -3916,7 +3920,7 @@
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
@@ -3924,7 +3928,7 @@
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -3948,32 +3952,32 @@
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31" thickBot="1">
       <c r="A17" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="31" thickBot="1">
       <c r="A18" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D18" s="21"/>
     </row>
@@ -4064,7 +4068,7 @@
     <row r="6" spans="1:4" ht="16" thickBot="1"/>
     <row r="7" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A7" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -4101,7 +4105,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>75</v>
@@ -4113,7 +4117,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -4134,7 +4138,7 @@
     </row>
     <row r="13" spans="1:4" ht="31" thickBot="1">
       <c r="A13" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>56</v>
@@ -4143,7 +4147,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
@@ -4159,7 +4163,7 @@
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
